--- a/spottop10.xlsx
+++ b/spottop10.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GYOKU\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Spotify Top 10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -171,11 +166,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,14 +234,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -293,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,10 +312,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +346,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,20 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>1411</v>
       </c>
@@ -640,37 +619,37 @@
         <v>44442</v>
       </c>
       <c r="I2">
-        <v>0.80300000000000005</v>
+        <v>0.803</v>
       </c>
       <c r="J2">
-        <v>0.59699999999999998</v>
+        <v>0.597</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2">
-        <v>-6.0350000000000001</v>
+        <v>-6.035</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="O2">
-        <v>6.1899999999999998E-4</v>
+        <v>0.000619</v>
       </c>
       <c r="P2">
-        <v>4.5000000000000001E-6</v>
+        <v>4.5E-06</v>
       </c>
       <c r="Q2">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="R2">
-        <v>0.33100000000000002</v>
+        <v>0.331</v>
       </c>
       <c r="S2">
-        <v>136.00800000000001</v>
+        <v>136.008</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -682,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>3018</v>
       </c>
@@ -708,7 +687,7 @@
         <v>44411</v>
       </c>
       <c r="I3">
-        <v>0.72499999999999998</v>
+        <v>0.725</v>
       </c>
       <c r="J3">
         <v>0.86</v>
@@ -726,19 +705,19 @@
         <v>0.182</v>
       </c>
       <c r="O3">
-        <v>0.42199999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="P3">
-        <v>2.8400000000000002E-4</v>
+        <v>0.000284</v>
       </c>
       <c r="Q3">
-        <v>6.7400000000000002E-2</v>
+        <v>0.0674</v>
       </c>
       <c r="R3">
-        <v>0.79100000000000004</v>
+        <v>0.791</v>
       </c>
       <c r="S3">
-        <v>175.89599999999999</v>
+        <v>175.896</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -750,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2079</v>
       </c>
@@ -776,25 +755,25 @@
         <v>44491</v>
       </c>
       <c r="I4">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="J4">
-        <v>0.65900000000000003</v>
+        <v>0.659</v>
       </c>
       <c r="K4">
         <v>8</v>
       </c>
       <c r="L4">
-        <v>-7.2889999999999997</v>
+        <v>-7.289</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3.8899999999999997E-2</v>
+        <v>0.0389</v>
       </c>
       <c r="O4">
-        <v>2.7899999999999999E-3</v>
+        <v>0.00279</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -818,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>4628</v>
       </c>
@@ -844,7 +823,7 @@
         <v>43910</v>
       </c>
       <c r="I5">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="J5">
         <v>0.73</v>
@@ -853,25 +832,25 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>-5.9340000000000002</v>
+        <v>-5.934</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>5.9799999999999999E-2</v>
+        <v>0.0598</v>
       </c>
       <c r="O5">
-        <v>1.4599999999999999E-3</v>
+        <v>0.00146</v>
       </c>
       <c r="P5">
-        <v>9.5400000000000001E-5</v>
+        <v>9.54E-05</v>
       </c>
       <c r="Q5">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="R5">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="S5">
         <v>171.005</v>
@@ -886,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4433</v>
       </c>
@@ -912,37 +891,37 @@
         <v>44498</v>
       </c>
       <c r="I6">
-        <v>0.78800000000000003</v>
+        <v>0.788</v>
       </c>
       <c r="J6">
-        <v>0.85899999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>-2.7240000000000002</v>
+        <v>-2.724</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>8.5599999999999996E-2</v>
+        <v>0.0856</v>
       </c>
       <c r="O6">
-        <v>0.28100000000000003</v>
+        <v>0.281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.24E-2</v>
+        <v>0.0424</v>
       </c>
       <c r="R6">
-        <v>0.82199999999999995</v>
+        <v>0.822</v>
       </c>
       <c r="S6">
-        <v>141.02000000000001</v>
+        <v>141.02</v>
       </c>
       <c r="T6">
         <v>4</v>
@@ -954,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>3070</v>
       </c>
@@ -980,10 +959,10 @@
         <v>44474</v>
       </c>
       <c r="I7">
-        <v>0.63900000000000001</v>
+        <v>0.639</v>
       </c>
       <c r="J7">
-        <v>0.70299999999999996</v>
+        <v>0.703</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -995,22 +974,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>7.9399999999999998E-2</v>
+        <v>0.0794</v>
       </c>
       <c r="O7">
-        <v>8.8900000000000007E-2</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="P7">
-        <v>1.7799999999999999E-6</v>
+        <v>1.78E-06</v>
       </c>
       <c r="Q7">
-        <v>8.6499999999999994E-2</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="R7">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="S7">
-        <v>169.88800000000001</v>
+        <v>169.888</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -1022,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>3447</v>
       </c>
@@ -1048,10 +1027,10 @@
         <v>44351</v>
       </c>
       <c r="I8">
-        <v>0.64400000000000002</v>
+        <v>0.644</v>
       </c>
       <c r="J8">
-        <v>0.64800000000000002</v>
+        <v>0.648</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1063,22 +1042,22 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0.11799999999999999</v>
+        <v>0.118</v>
       </c>
       <c r="O8">
-        <v>0.27600000000000002</v>
+        <v>0.276</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="R8">
         <v>0.44</v>
       </c>
       <c r="S8">
-        <v>179.95099999999999</v>
+        <v>179.951</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -1090,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>4360</v>
       </c>
@@ -1116,37 +1095,37 @@
         <v>44407</v>
       </c>
       <c r="I9">
-        <v>0.33200000000000002</v>
+        <v>0.332</v>
       </c>
       <c r="J9">
-        <v>0.22500000000000001</v>
+        <v>0.225</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>-8.6969999999999992</v>
+        <v>-8.696999999999999</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3.4799999999999998E-2</v>
+        <v>0.0348</v>
       </c>
       <c r="O9">
-        <v>0.76700000000000002</v>
+        <v>0.767</v>
       </c>
       <c r="P9">
-        <v>3.49E-3</v>
+        <v>0.00349</v>
       </c>
       <c r="Q9">
         <v>0.128</v>
       </c>
       <c r="R9">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="S9">
-        <v>81.055000000000007</v>
+        <v>81.05500000000001</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1158,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>4570</v>
       </c>
@@ -1184,16 +1163,16 @@
         <v>44337</v>
       </c>
       <c r="I10">
-        <v>0.56299999999999994</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J10">
-        <v>0.66400000000000003</v>
+        <v>0.664</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>-5.0439999999999996</v>
+        <v>-5.044</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1202,16 +1181,16 @@
         <v>0.154</v>
       </c>
       <c r="O10">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8.4900000000000003E-2</v>
+        <v>0.0849</v>
       </c>
       <c r="R10">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="S10">
         <v>166.928</v>
@@ -1226,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>4192</v>
       </c>
@@ -1252,37 +1231,37 @@
         <v>44483</v>
       </c>
       <c r="I11">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="J11">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
-        <v>-7.5190000000000001</v>
+        <v>-7.519</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2.8199999999999999E-2</v>
+        <v>0.0282</v>
       </c>
       <c r="O11">
-        <v>0.57799999999999996</v>
+        <v>0.578</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.13300000000000001</v>
+        <v>0.133</v>
       </c>
       <c r="R11">
         <v>0.13</v>
       </c>
       <c r="S11">
-        <v>141.98099999999999</v>
+        <v>141.981</v>
       </c>
       <c r="T11">
         <v>4</v>
